--- a/placement/static/placement/placementsdata.xlsx
+++ b/placement/static/placement/placementsdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anaconda codes\Websites\Placements Stats\College\placement\static\placement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF27194D-ED2F-45F5-ACC9-494201BD9907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7181891C-C786-4984-8C32-B35F59E9E981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="298">
   <si>
     <t>cgpa_cutoff</t>
   </si>
@@ -907,9 +907,6 @@
   </si>
   <si>
     <t>Juniper Networks</t>
-  </si>
-  <si>
-    <t>TURE</t>
   </si>
   <si>
     <t>Galvanize</t>
@@ -1393,10 +1390,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G336" sqref="G336"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M322" sqref="M322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1438,7 +1436,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <f>ROW()-1</f>
         <v>1</v>
@@ -1468,7 +1466,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1497,7 +1495,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A75" si="0">ROW()-1</f>
         <v>3</v>
@@ -1527,7 +1525,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1557,7 +1555,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1587,7 +1585,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1617,7 +1615,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1647,7 +1645,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1677,7 +1675,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1707,7 +1705,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1737,7 +1735,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1767,7 +1765,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>163</v>
@@ -1794,7 +1792,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1824,7 +1822,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>124</v>
@@ -1851,10 +1849,10 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C16" s="4">
         <v>7</v>
@@ -1898,14 +1896,14 @@
       <c r="G17" s="5">
         <v>-1</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>293</v>
+      <c r="H17" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="I17" s="5">
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1935,7 +1933,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1965,7 +1963,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1995,7 +1993,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2025,7 +2023,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2055,7 +2053,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2085,7 +2083,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2115,7 +2113,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2145,7 +2143,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>259</v>
@@ -2172,10 +2170,10 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C27" s="4">
         <v>7</v>
@@ -2199,7 +2197,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2229,7 +2227,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2259,7 +2257,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2289,7 +2287,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <f>ROW()-1</f>
         <v>30</v>
@@ -2319,7 +2317,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2349,7 +2347,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2379,7 +2377,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2409,7 +2407,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2439,7 +2437,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2469,7 +2467,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2499,7 +2497,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2529,7 +2527,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2559,7 +2557,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2589,7 +2587,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <f>ROW()-1</f>
         <v>40</v>
@@ -2619,7 +2617,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2649,7 +2647,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2679,7 +2677,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2709,7 +2707,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2739,7 +2737,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2769,7 +2767,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2799,7 +2797,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2829,7 +2827,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2859,7 +2857,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2889,7 +2887,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2919,7 +2917,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2949,7 +2947,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2979,7 +2977,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3009,7 +3007,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3039,10 +3037,10 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C56" s="4">
         <v>0</v>
@@ -3066,7 +3064,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
         <v>178</v>
@@ -3093,7 +3091,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <f>ROW()-1</f>
         <v>57</v>
@@ -3123,7 +3121,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3153,7 +3151,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3183,7 +3181,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3213,7 +3211,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3243,7 +3241,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3273,7 +3271,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3303,7 +3301,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3333,7 +3331,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3363,7 +3361,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -3393,7 +3391,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -3423,7 +3421,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <f>ROW()-1</f>
         <v>68</v>
@@ -3453,7 +3451,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -3483,7 +3481,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -3513,7 +3511,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -3543,7 +3541,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -3573,7 +3571,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -3603,7 +3601,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -3633,7 +3631,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <f t="shared" ref="A76:A81" si="1">ROW()-1</f>
         <v>75</v>
@@ -3663,7 +3661,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -3693,7 +3691,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -3723,7 +3721,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -3753,7 +3751,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -3783,7 +3781,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -3813,7 +3811,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="8" t="s">
         <v>84</v>
@@ -3844,7 +3842,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="12" t="s">
         <v>86</v>
@@ -3875,7 +3873,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="8" t="s">
         <v>12</v>
@@ -3906,7 +3904,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="12" t="s">
         <v>88</v>
@@ -3937,7 +3935,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="8" t="s">
         <v>89</v>
@@ -3968,7 +3966,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="12" t="s">
         <v>15</v>
@@ -3999,7 +3997,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="8" t="s">
         <v>90</v>
@@ -4030,7 +4028,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="12" t="s">
         <v>91</v>
@@ -4061,7 +4059,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="8" t="s">
         <v>14</v>
@@ -4092,7 +4090,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="12" t="s">
         <v>92</v>
@@ -4123,7 +4121,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="8" t="s">
         <v>93</v>
@@ -4154,7 +4152,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="12" t="s">
         <v>94</v>
@@ -4185,7 +4183,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="8" t="s">
         <v>95</v>
@@ -4216,7 +4214,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="12" t="s">
         <v>67</v>
@@ -4247,7 +4245,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="8" t="s">
         <v>96</v>
@@ -4278,7 +4276,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="12" t="s">
         <v>97</v>
@@ -4309,7 +4307,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="8" t="s">
         <v>98</v>
@@ -4340,7 +4338,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="12" t="s">
         <v>18</v>
@@ -4371,7 +4369,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="8" t="s">
         <v>99</v>
@@ -4402,7 +4400,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="12" t="s">
         <v>100</v>
@@ -4433,7 +4431,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="8" t="s">
         <v>101</v>
@@ -4464,7 +4462,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="12" t="s">
         <v>102</v>
@@ -4495,7 +4493,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="8" t="s">
         <v>103</v>
@@ -4526,7 +4524,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="12" t="s">
         <v>104</v>
@@ -4557,7 +4555,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="8" t="s">
         <v>105</v>
@@ -4588,7 +4586,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="12" t="s">
         <v>31</v>
@@ -4619,7 +4617,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="8" t="s">
         <v>37</v>
@@ -4650,7 +4648,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="12" t="s">
         <v>106</v>
@@ -4681,7 +4679,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="8" t="s">
         <v>107</v>
@@ -4712,7 +4710,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="12" t="s">
         <v>38</v>
@@ -4743,7 +4741,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="8" t="s">
         <v>108</v>
@@ -4774,7 +4772,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="12" t="s">
         <v>109</v>
@@ -4805,7 +4803,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="8" t="s">
         <v>8</v>
@@ -4836,7 +4834,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="12" t="s">
         <v>110</v>
@@ -4867,7 +4865,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="8" t="s">
         <v>111</v>
@@ -4898,7 +4896,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="12" t="s">
         <v>10</v>
@@ -4929,7 +4927,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="8" t="s">
         <v>112</v>
@@ -4960,7 +4958,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="12" t="s">
         <v>113</v>
@@ -4991,7 +4989,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="8" t="s">
         <v>42</v>
@@ -5022,7 +5020,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="12" t="s">
         <v>114</v>
@@ -5053,7 +5051,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="8" t="s">
         <v>115</v>
@@ -5084,7 +5082,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="12" t="s">
         <v>116</v>
@@ -5115,7 +5113,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="8" t="s">
         <v>117</v>
@@ -5146,7 +5144,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="12" t="s">
         <v>118</v>
@@ -5177,7 +5175,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="8" t="s">
         <v>119</v>
@@ -5208,7 +5206,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="12" t="s">
         <v>74</v>
@@ -5239,7 +5237,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="8" t="s">
         <v>120</v>
@@ -5270,7 +5268,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="12" t="s">
         <v>121</v>
@@ -5301,7 +5299,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="8" t="s">
         <v>122</v>
@@ -5332,7 +5330,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="12" t="s">
         <v>123</v>
@@ -5363,7 +5361,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="8" t="s">
         <v>124</v>
@@ -5394,7 +5392,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="12" t="s">
         <v>125</v>
@@ -5425,7 +5423,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="8" t="s">
         <v>126</v>
@@ -5456,7 +5454,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="12" t="s">
         <v>127</v>
@@ -5487,7 +5485,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="8" t="s">
         <v>128</v>
@@ -5518,7 +5516,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="12" t="s">
         <v>129</v>
@@ -5549,7 +5547,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="8" t="s">
         <v>130</v>
@@ -5580,7 +5578,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="12" t="s">
         <v>131</v>
@@ -5611,7 +5609,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="8" t="s">
         <v>132</v>
@@ -5642,7 +5640,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="12" t="s">
         <v>133</v>
@@ -5673,7 +5671,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="8" t="s">
         <v>33</v>
@@ -5704,7 +5702,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="12" t="s">
         <v>134</v>
@@ -5735,7 +5733,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="8" t="s">
         <v>135</v>
@@ -5766,7 +5764,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="12" t="s">
         <v>136</v>
@@ -5797,7 +5795,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="8" t="s">
         <v>137</v>
@@ -5828,7 +5826,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="12" t="s">
         <v>138</v>
@@ -5859,7 +5857,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="8" t="s">
         <v>139</v>
@@ -5890,7 +5888,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="12" t="s">
         <v>140</v>
@@ -5921,7 +5919,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="8" t="s">
         <v>141</v>
@@ -5952,7 +5950,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="12" t="s">
         <v>142</v>
@@ -5983,7 +5981,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="8" t="s">
         <v>143</v>
@@ -6014,7 +6012,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="12" t="s">
         <v>144</v>
@@ -6045,7 +6043,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="8" t="s">
         <v>145</v>
@@ -6076,7 +6074,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="12" t="s">
         <v>71</v>
@@ -6107,7 +6105,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="8" t="s">
         <v>146</v>
@@ -6138,7 +6136,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="12" t="s">
         <v>147</v>
@@ -6169,7 +6167,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="8" t="s">
         <v>148</v>
@@ -6200,7 +6198,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="12" t="s">
         <v>149</v>
@@ -6231,7 +6229,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="8" t="s">
         <v>150</v>
@@ -6262,7 +6260,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="12" t="s">
         <v>151</v>
@@ -6293,7 +6291,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="8" t="s">
         <v>152</v>
@@ -6324,7 +6322,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="12" t="s">
         <v>153</v>
@@ -6355,7 +6353,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="8" t="s">
         <v>154</v>
@@ -6386,7 +6384,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="12" t="s">
         <v>155</v>
@@ -6417,7 +6415,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="8" t="s">
         <v>156</v>
@@ -6448,7 +6446,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="12" t="s">
         <v>157</v>
@@ -6479,7 +6477,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="8" t="s">
         <v>158</v>
@@ -6510,7 +6508,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="12" t="s">
         <v>22</v>
@@ -6541,7 +6539,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="8" t="s">
         <v>159</v>
@@ -6572,7 +6570,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="12" t="s">
         <v>160</v>
@@ -6603,7 +6601,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="8" t="s">
         <v>28</v>
@@ -6634,7 +6632,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="12" t="s">
         <v>69</v>
@@ -6665,7 +6663,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="8" t="s">
         <v>34</v>
@@ -6696,7 +6694,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="12" t="s">
         <v>161</v>
@@ -6727,7 +6725,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="8" t="s">
         <v>162</v>
@@ -6758,7 +6756,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="12" t="s">
         <v>163</v>
@@ -6789,7 +6787,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="8" t="s">
         <v>164</v>
@@ -6820,7 +6818,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="12" t="s">
         <v>165</v>
@@ -6851,7 +6849,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="8" t="s">
         <v>166</v>
@@ -6882,7 +6880,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="12" t="s">
         <v>167</v>
@@ -6913,7 +6911,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="8" t="s">
         <v>168</v>
@@ -6944,7 +6942,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="12" t="s">
         <v>169</v>
@@ -6975,7 +6973,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="B184" s="8" t="s">
         <v>170</v>
@@ -7006,7 +7004,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="12" t="s">
         <v>171</v>
@@ -7037,7 +7035,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="8" t="s">
         <v>172</v>
@@ -7068,7 +7066,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="8" t="s">
         <v>173</v>
@@ -7099,7 +7097,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="12" t="s">
         <v>17</v>
@@ -7130,7 +7128,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="8" t="s">
         <v>174</v>
@@ -7161,7 +7159,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="12" t="s">
         <v>175</v>
@@ -7192,7 +7190,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="8" t="s">
         <v>176</v>
@@ -7223,7 +7221,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="12" t="s">
         <v>177</v>
@@ -7254,7 +7252,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="8" t="s">
         <v>178</v>
@@ -7285,7 +7283,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="12" t="s">
         <v>179</v>
@@ -7316,7 +7314,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="8" t="s">
         <v>180</v>
@@ -7347,7 +7345,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="B196" s="12" t="s">
         <v>181</v>
@@ -7378,7 +7376,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="8" t="s">
         <v>182</v>
@@ -7409,7 +7407,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="12" t="s">
         <v>183</v>
@@ -7440,7 +7438,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="8" t="s">
         <v>184</v>
@@ -7471,7 +7469,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="12" t="s">
         <v>185</v>
@@ -7502,7 +7500,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="8" t="s">
         <v>186</v>
@@ -7533,7 +7531,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="12" t="s">
         <v>187</v>
@@ -7564,7 +7562,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="17" t="s">
         <v>188</v>
@@ -7595,7 +7593,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="19" t="s">
         <v>189</v>
@@ -7626,7 +7624,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="17" t="s">
         <v>190</v>
@@ -7657,7 +7655,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="19" t="s">
         <v>191</v>
@@ -7688,7 +7686,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="17" t="s">
         <v>192</v>
@@ -7719,7 +7717,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="19" t="s">
         <v>193</v>
@@ -7750,7 +7748,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="17" t="s">
         <v>194</v>
@@ -7781,7 +7779,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="19" t="s">
         <v>195</v>
@@ -7812,7 +7810,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="B211" s="8" t="s">
         <v>196</v>
@@ -7843,7 +7841,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="12" t="s">
         <v>197</v>
@@ -7874,7 +7872,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="8" t="s">
         <v>198</v>
@@ -7905,7 +7903,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="12" t="s">
         <v>199</v>
@@ -7936,7 +7934,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="8" t="s">
         <v>200</v>
@@ -7967,7 +7965,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="12" t="s">
         <v>201</v>
@@ -7998,7 +7996,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="8" t="s">
         <v>202</v>
@@ -8029,7 +8027,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="12" t="s">
         <v>203</v>
@@ -8060,7 +8058,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="8" t="s">
         <v>204</v>
@@ -8091,7 +8089,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="12" t="s">
         <v>205</v>
@@ -8122,7 +8120,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="8" t="s">
         <v>206</v>
@@ -8153,7 +8151,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="12" t="s">
         <v>207</v>
@@ -8184,7 +8182,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="8" t="s">
         <v>208</v>
@@ -8215,7 +8213,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="12" t="s">
         <v>209</v>
@@ -8246,7 +8244,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="8" t="s">
         <v>210</v>
@@ -8277,7 +8275,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="12" t="s">
         <v>211</v>
@@ -8308,7 +8306,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="8" t="s">
         <v>212</v>
@@ -8338,7 +8336,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="B228" s="12" t="s">
         <v>213</v>
@@ -8369,7 +8367,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="8" t="s">
         <v>214</v>
@@ -8400,7 +8398,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="12" t="s">
         <v>215</v>
@@ -8431,7 +8429,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="8" t="s">
         <v>216</v>
@@ -8462,7 +8460,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
       <c r="B232" s="12" t="s">
         <v>217</v>
@@ -8493,7 +8491,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="8" t="s">
         <v>218</v>
@@ -8524,7 +8522,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
       <c r="B234" s="8" t="s">
         <v>219</v>
@@ -8555,7 +8553,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
       <c r="B235" s="12" t="s">
         <v>220</v>
@@ -8586,7 +8584,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="8" t="s">
         <v>221</v>
@@ -8617,7 +8615,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="12" t="s">
         <v>222</v>
@@ -8648,7 +8646,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="8" t="s">
         <v>223</v>
@@ -8679,7 +8677,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="12" t="s">
         <v>224</v>
@@ -8710,7 +8708,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="B240" s="8" t="s">
         <v>225</v>
@@ -8741,7 +8739,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
       <c r="B241" s="12" t="s">
         <v>226</v>
@@ -8772,7 +8770,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="B242" s="8" t="s">
         <v>227</v>
@@ -8803,7 +8801,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
       <c r="B243" s="12" t="s">
         <v>228</v>
@@ -8834,7 +8832,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
       <c r="B244" s="8" t="s">
         <v>229</v>
@@ -8865,7 +8863,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
       <c r="B245" s="12" t="s">
         <v>230</v>
@@ -8896,7 +8894,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
       <c r="B246" s="12" t="s">
         <v>231</v>
@@ -8927,7 +8925,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
       <c r="B247" s="8" t="s">
         <v>232</v>
@@ -8958,7 +8956,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
       <c r="B248" s="12" t="s">
         <v>233</v>
@@ -8989,7 +8987,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="8" t="s">
         <v>234</v>
@@ -9020,7 +9018,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="12" t="s">
         <v>235</v>
@@ -9051,7 +9049,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="8" t="s">
         <v>236</v>
@@ -9082,7 +9080,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
       <c r="B252" s="12" t="s">
         <v>29</v>
@@ -9113,7 +9111,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
       <c r="B253" s="8" t="s">
         <v>237</v>
@@ -9144,7 +9142,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
       <c r="B254" s="12" t="s">
         <v>238</v>
@@ -9175,7 +9173,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
       <c r="B255" s="8" t="s">
         <v>239</v>
@@ -9206,7 +9204,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
       <c r="B256" s="12" t="s">
         <v>240</v>
@@ -9237,7 +9235,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
       <c r="B257" s="8" t="s">
         <v>241</v>
@@ -9268,7 +9266,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
       <c r="B258" s="12" t="s">
         <v>242</v>
@@ -9299,7 +9297,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
       <c r="B259" s="8" t="s">
         <v>243</v>
@@ -9330,7 +9328,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="12" t="s">
         <v>244</v>
@@ -9361,7 +9359,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
       <c r="B261" s="8" t="s">
         <v>245</v>
@@ -9392,7 +9390,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
       <c r="B262" s="12" t="s">
         <v>246</v>
@@ -9423,7 +9421,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
       <c r="B263" s="8" t="s">
         <v>247</v>
@@ -9454,7 +9452,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
       <c r="B264" s="12" t="s">
         <v>248</v>
@@ -9485,7 +9483,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
       <c r="B265" s="8" t="s">
         <v>249</v>
@@ -9516,7 +9514,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
       <c r="B266" s="12" t="s">
         <v>250</v>
@@ -9547,7 +9545,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="B267" s="8" t="s">
         <v>251</v>
@@ -9578,7 +9576,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
       <c r="B268" s="12" t="s">
         <v>252</v>
@@ -9609,7 +9607,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
       <c r="B269" s="8" t="s">
         <v>253</v>
@@ -9640,7 +9638,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
       <c r="B270" s="12" t="s">
         <v>254</v>
@@ -9671,7 +9669,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
       <c r="B271" s="8" t="s">
         <v>255</v>
@@ -9702,7 +9700,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="12" t="s">
         <v>256</v>
@@ -9733,7 +9731,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
       <c r="B273" s="8" t="s">
         <v>257</v>
@@ -9764,7 +9762,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
       <c r="B274" s="12" t="s">
         <v>258</v>
@@ -9795,7 +9793,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
       <c r="B275" s="8" t="s">
         <v>259</v>
@@ -9826,7 +9824,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
       <c r="B276" s="12" t="s">
         <v>260</v>
@@ -9857,7 +9855,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4"/>
       <c r="B277" s="8" t="s">
         <v>261</v>
@@ -9888,7 +9886,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
       <c r="B278" s="12" t="s">
         <v>262</v>
@@ -9919,7 +9917,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
       <c r="B279" s="8" t="s">
         <v>263</v>
@@ -9950,7 +9948,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
       <c r="B280" s="12" t="s">
         <v>264</v>
@@ -9981,7 +9979,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
       <c r="B281" s="8" t="s">
         <v>265</v>
@@ -10012,7 +10010,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
       <c r="B282" s="12" t="s">
         <v>266</v>
@@ -10043,7 +10041,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
       <c r="B283" s="8" t="s">
         <v>267</v>
@@ -10074,7 +10072,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="12" t="s">
         <v>268</v>
@@ -10105,7 +10103,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="8" t="s">
         <v>269</v>
@@ -10136,7 +10134,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
       <c r="B286" s="12" t="s">
         <v>270</v>
@@ -10167,7 +10165,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
       <c r="B287" s="8" t="s">
         <v>271</v>
@@ -10198,7 +10196,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
       <c r="B288" s="12" t="s">
         <v>272</v>
@@ -10229,7 +10227,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
       <c r="B289" s="8" t="s">
         <v>273</v>
@@ -10260,7 +10258,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
       <c r="B290" s="8" t="s">
         <v>274</v>
@@ -10291,7 +10289,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
       <c r="B291" s="12" t="s">
         <v>275</v>
@@ -10322,7 +10320,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
       <c r="B292" s="8" t="s">
         <v>276</v>
@@ -10353,7 +10351,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
       <c r="B293" s="12" t="s">
         <v>277</v>
@@ -10384,7 +10382,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
       <c r="B294" s="8" t="s">
         <v>278</v>
@@ -10415,7 +10413,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
       <c r="B295" s="12" t="s">
         <v>279</v>
@@ -10446,7 +10444,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4"/>
       <c r="B296" s="8" t="s">
         <v>280</v>
@@ -10477,7 +10475,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4"/>
       <c r="B297" s="12" t="s">
         <v>281</v>
@@ -10508,7 +10506,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4"/>
       <c r="B298" s="12" t="s">
         <v>282</v>
@@ -10539,7 +10537,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4"/>
       <c r="B299" s="8" t="s">
         <v>283</v>
@@ -10570,7 +10568,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4"/>
       <c r="B300" s="12" t="s">
         <v>284</v>
@@ -10601,7 +10599,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4"/>
       <c r="B301" s="17" t="s">
         <v>285</v>
@@ -10632,7 +10630,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B302" s="4" t="s">
         <v>130</v>
       </c>
@@ -10658,7 +10656,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B303" s="4" t="s">
         <v>287</v>
       </c>
@@ -10684,7 +10682,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B304" s="12" t="s">
         <v>289</v>
       </c>
@@ -10710,7 +10708,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="305" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B305" s="22" t="s">
         <v>158</v>
       </c>
@@ -10736,7 +10734,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="306" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B306" s="22" t="s">
         <v>69</v>
       </c>
@@ -10762,7 +10760,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="307" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B307" s="22" t="s">
         <v>167</v>
       </c>
@@ -10788,9 +10786,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="308" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B308" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C308" s="4">
         <v>0</v>
@@ -10814,7 +10812,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="309" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B309" s="22" t="s">
         <v>290</v>
       </c>
@@ -10840,9 +10838,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="310" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B310" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C310" s="4">
         <v>0</v>
@@ -10867,7 +10865,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I310" xr:uid="{FC098CB8-A5B9-4CF2-ABBD-26C004A81993}"/>
+  <autoFilter ref="A1:I310" xr:uid="{FC098CB8-A5B9-4CF2-ABBD-26C004A81993}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="TURE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
